--- a/public/template/Template_import_siswa.xlsx
+++ b/public/template/Template_import_siswa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naufa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825735B6-253E-40B5-8EB4-B680F8541186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91636C8-6830-400A-9B0D-0379170942F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CDAB489F-B10F-40C0-B332-773FB152E33B}"/>
   </bookViews>
@@ -24,6 +24,72 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Naufal Rizqullah</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{4239F3DB-F273-4667-AD47-65BDB367E360}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Wajib di isi</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{2576121A-34B3-41BE-BFA4-C0EC6894D883}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Wajib di isi</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{CD6D6417-D617-4035-BEDE-B3EC2BA95C3A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Wajib di isi</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{CA5CA655-4397-4B5C-94C9-28F2602FA0E6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Wajib di isi</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
@@ -48,29 +114,26 @@
     <t>telp_ortu</t>
   </si>
   <si>
-    <t>nama*</t>
-  </si>
-  <si>
-    <t>jenis_kelamin*</t>
-  </si>
-  <si>
-    <t>nis*</t>
-  </si>
-  <si>
-    <t>kelas*</t>
-  </si>
-  <si>
-    <t>status*</t>
+    <t>nama</t>
+  </si>
+  <si>
+    <t>jenis_kelamin</t>
+  </si>
+  <si>
+    <t>nis</t>
+  </si>
+  <si>
+    <t>kelas</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +155,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -121,7 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -132,10 +202,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -452,27 +531,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592FB9F7-3F0C-4713-9BB7-AFC38D2528D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592FB9F7-3F0C-4713-9BB7-AFC38D2528D4}">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="7" customWidth="1"/>
     <col min="5" max="5" width="26.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="4" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" style="3" customWidth="1"/>
     <col min="9" max="9" width="24.42578125" style="3" customWidth="1"/>
     <col min="10" max="10" width="28" style="3" customWidth="1"/>
     <col min="11" max="11" width="23.42578125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="23" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -485,7 +562,7 @@
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -509,11 +586,12 @@
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/template/Template_import_siswa.xlsx
+++ b/public/template/Template_import_siswa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naufa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91636C8-6830-400A-9B0D-0379170942F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C5C2CA-D8FC-4787-BDBA-98FA51712158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CDAB489F-B10F-40C0-B332-773FB152E33B}"/>
   </bookViews>
@@ -59,6 +59,20 @@
       </text>
     </comment>
     <comment ref="F1" authorId="0" shapeId="0" xr:uid="{CD6D6417-D617-4035-BEDE-B3EC2BA95C3A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Wajib di isi</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{F09729BB-C6A9-4D4B-B193-0933AE9F5512}">
       <text>
         <r>
           <rPr>
@@ -534,7 +548,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592FB9F7-3F0C-4713-9BB7-AFC38D2528D4}">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
